--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,15 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,13 +73,19 @@
     <t>happy</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>heroes</t>
@@ -88,81 +94,75 @@
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -175,19 +175,13 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -551,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +556,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -694,13 +688,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -720,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.684931506849315</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -770,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3758389261744967</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3527131782945737</v>
+        <v>0.374031007751938</v>
       </c>
       <c r="C7">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D7">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8723404255319149</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3466666666666667</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.859375</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3227513227513227</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C9">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1984126984126984</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8414634146341463</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,37 +1014,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.128686327077748</v>
+        <v>0.1155913978494624</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1064,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1090,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7887323943661971</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1122,13 +1116,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7583333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1140,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1148,13 +1142,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7450980392156863</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1166,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1174,13 +1168,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.725</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L16">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1192,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1200,13 +1194,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7142857142857143</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1218,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1226,13 +1220,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7111111111111111</v>
+        <v>0.68125</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1244,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1252,13 +1246,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6981132075471698</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L19">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1270,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1278,13 +1272,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6944444444444444</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1296,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1304,13 +1298,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6808510638297872</v>
+        <v>0.6449086161879896</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1322,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1356,13 +1350,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.618798955613577</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1374,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>146</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1382,13 +1376,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5730337078651685</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1400,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1408,13 +1402,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5647058823529412</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L25">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M25">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1434,13 +1428,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5600000000000001</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1452,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1460,13 +1454,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5457627118644067</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L27">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M27">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1478,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1486,13 +1480,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5068493150684932</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1504,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1512,13 +1506,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4923076923076923</v>
+        <v>0.46875</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1530,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1538,13 +1532,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4728033472803347</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L30">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1556,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1564,13 +1558,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.453125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1582,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1616,13 +1610,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1302325581395349</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1634,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>187</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1642,13 +1636,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.1267942583732057</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L34">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1660,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1694,25 +1688,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.08734602463605823</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="L36">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M36">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1720,13 +1714,13 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.07769145394006659</v>
+        <v>0.08546059933407325</v>
       </c>
       <c r="L37">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M37">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1738,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1746,25 +1740,25 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.05761316872427984</v>
+        <v>0.04791344667697063</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>458</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1772,25 +1766,25 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.04482225656877898</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N39">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>618</v>
+        <v>828</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1798,25 +1792,25 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>0.04119850187265917</v>
+        <v>0.03461178671655753</v>
       </c>
       <c r="L40">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M40">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="N40">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2048</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1824,25 +1818,25 @@
         <v>56</v>
       </c>
       <c r="K41">
-        <v>0.04036908881199539</v>
+        <v>0.02227962544397804</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>832</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1850,77 +1844,25 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.02789256198347108</v>
+        <v>0.01129588955130217</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43">
-        <v>0.02576489533011272</v>
-      </c>
-      <c r="L43">
-        <v>80</v>
-      </c>
-      <c r="M43">
-        <v>82</v>
-      </c>
-      <c r="N43">
-        <v>0.98</v>
-      </c>
-      <c r="O43">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K44">
-        <v>0.01191222570532915</v>
-      </c>
-      <c r="L44">
-        <v>38</v>
-      </c>
-      <c r="M44">
-        <v>49</v>
-      </c>
-      <c r="N44">
-        <v>0.78</v>
-      </c>
-      <c r="O44">
-        <v>0.22</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
   </sheetData>
